--- a/batch_results.xlsx
+++ b/batch_results.xlsx
@@ -463,7 +463,7 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="28" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="50" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="50" customWidth="1" min="11" max="11"/>
@@ -638,7 +638,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>B.Tech in Computer Science</t>
+          <t>B.Tech</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning</t>
+          <t>Computer Science with specializations in Artificial Intelligence and Machine Learning</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>Data Science, Data Wrangling, Data Visualization, Statistical Analysis, Predictive Modeling, Feature Engineering, Model Deployment, Python, C, C++, HTML/CSS, JavaScript, SQL, Bash, Java, R, Tensorflow, Scikit-Learn, Pytorch, NumPy, Pandas, Matplotlib, Keras, React.js, Django, Git, GitHub, Docker, AWS Cloud Services, Azure, Machine Learning, NLP, CNN, DNN, LLM, Linux, Windows, Selenium, Object Oriented Programming, Microsoft SQL Server, Multithreading</t>
+          <t>Data Wrangling, Data Visualization, Statistical Analysis, Predictive Modeling, Feature Engineering, Model Deployment,Python, C, C++, HTML/CSS, JavaScript, SQL, Bash , Java, R,Java,Tensorflow, Scikit-Learn, Pytorch, NumPy, Pandas, Matplotlib, Keras, React.js, Django , Git, GitHub, Docker, AWS Cloud Services, Azure, Machine Learning, NLP , CNN , DNN, LLM, Linux, Windows, Selenium, Object Oriented Programming , Microsoft SQL Server, Multithreading</t>
         </is>
       </c>
       <c r="L5" s="4" t="inlineStr">
@@ -683,34 +683,34 @@
       </c>
       <c r="N5" s="4" t="inlineStr">
         <is>
-          <t>Infosys (Software Engineering Intern, May 2024 – July 2024)</t>
+          <t>Infosys(Software Engineering Intern)</t>
         </is>
       </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
-          <t>Automated Attendance System (2024), Article Web Project (Nov 2023), Automated Short Video Creator - ASVC (November 2023), Calories Burned Prediction Model (2024), Templates Resume Creator (May 2023)</t>
+          <t>Automated Attendance System,Article Web Project,Automated Short Video Creator - ASVC,Calories Burned Prediction Model,Templates Resume Creator</t>
         </is>
       </c>
       <c r="P5" s="4" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Azure Fundamental (AZ-900), Microsoft Certified: Azure AI Fundamental (AI-900), Microsoft Certified: Azure Data Fundamental (DP-900), Microsoft Certified: Security, Compliance and Data Fundamental (SC-900), Microsoft Certified: Azure Administrator (AZ-104)</t>
+          <t>Microsoft Certified: Azure Fundamental (AZ-900 ), Microsoft Certified: Azure AI Fundamental (AI-900),Microsoft Certified: Azure Data Fundamental (DP-900),Microsoft Certified: Security , Compliance and Data Fundamental (SC-900),Microsoft Certified: Azure Administrator (AZ-104)</t>
         </is>
       </c>
       <c r="Q5" s="4" t="inlineStr">
         <is>
-          <t>AWS AI &amp; ML Scholarship, Toppr Asha Scholarship, Reliance Undergraduate Scholar, Google Kickstart Ranks, HDFC ECSS Scholarship, Solved more than 700+ programming problems on competitive platforms, MI Scholarship for class 11 and 12 students, Selected for Amazon ML Summer School 2024</t>
+          <t>AWS AI &amp; ML Scholarship,Toppr Asha Scholarship,Reliance Undergraduate Scholar,Google Kickstart Ranks: Round H 2022-3280, Farewell Round B 2023 -753, Farewell Round D 2023- 150,HDFC ECSS Scholarship,Solved more than 700+ programming problems on competitive platforms,MI Scholarship for class 11 and 12 students,Selected for  Amazon ML Summer School 2024</t>
         </is>
       </c>
       <c r="R5" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="S5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ML Engineer (58.83) 
-Generative AI Developer (39.74) 
-AI Research Scientist (38.65) 
+          <t xml:space="preserve">ML Engineer (58.25) 
+Generative AI Developer (40.24) 
+AI Research Scientist (39.21) 
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="K6" s="4" t="inlineStr">
         <is>
-          <t>Data Science, Data Wrangling, Data Visualization, Statistical Analysis, Predictive Modeling, Feature Engineering, Model Deployment, Big Data Analysis, PySpark, Microsoft Fabric, Apache Spark, Delta Lake, PowerBI, Lakehouse, Pipelines, Forecasting, Data Models, Data Lake, Python, C++, HTML/CSS, JavaScript, SQL (MySQL, SQLite), Bash, Java, R, MATLAB, TensorFlow, Scikit-Learn, Pytorch, NumPy, Pandas, Matplotlib, Keras, Django, Git, GitHub, Docker, Azure Cloud Services, Azure, Machine Learning, NLP, CNN, DNN, LLM, Linux, Windows, Selenium, Object Oriented Programming, Microsoft SQL Server, Multithreading, Database Management, OpenCV, Pandas, Computer Vision, Database Design, Automation, Full-stack Development, Azure Blob Storage, User Authentication, JavaScript, Cloud Deployment, Gemini API Integration, Web Development, User Interface Design, Azure AI Search, Semantic Search, PostgreSQL, LLM, Azure OpenAI, Advance RAG, Search Agent</t>
+          <t>Data Wrangling, Data Visualization, Statistical Analysis, Predictive Modeling, Feature Engineering, Model Deployment, Big Data Analysis, PySpark, Microsoft Fabric, Apache Spark, Delta Lake, PowerBI, Lakehouse, Pipelines, Forecassting , Data Models, Data Lake, Python, C++, HTML/CSS, JavaScript, SQL (MySQL, SQLite), Bash, Java, R, MATLAB, TensorFlow, Scikit-Learn, Pytorch, NumPy, Pandas, Matplotlib, Keras, Django, Git, GitHub, Docker, Azure Cloud Services, Azure, Machine Learning, NLP, CNN, DNN, LLM, Linux, Windows, Selenium, Object Oriented Programming, Microsoft SQL Server, Multithreading, Database Management, OpenCV, Pandas, Computer Vision, Database Design, Automation, Full-stack Development, Azure Blob Storage, User Authentication, JavaScript, Cloud Deployment, Gemini API Integration, Web Development, User Interface Design, Azure AI Search, Semantic Search, PostgreSQL, LLM, Azure OpenAI, Advance RAG, Search Agent, Data Preprocessing, Model Optimization</t>
         </is>
       </c>
       <c r="L6" s="4" t="inlineStr">
@@ -783,34 +783,34 @@
       </c>
       <c r="N6" s="4" t="inlineStr">
         <is>
-          <t>AI Intern at Infosys (May 2024 - Jul 2024), Software Developer Intern at SilverTouch Technologies Ltd. (Aug 2024 - Sep 2024)</t>
+          <t>Infosys(AI Intern),SilverTouch Technologies Ltd.(Software Developer Intern)</t>
         </is>
       </c>
       <c r="O6" s="4" t="inlineStr">
         <is>
-          <t>Automated Attendance System (Jan 2024), Article Web Project (Nov 2023 - Nov 2023), Automated Short Video Creator - ASVC (Nov 2023 - Nov 2023), Templates Resume Creator (May 2023 - May 2023), CareerCanvas: Job Finder Chatbot (Jan 2024), Calories Burned Prediction Model</t>
+          <t>Automated Attendance System,Article Web Project,Automated Short Video Creator - ASVC,Templates Resume Creator,CareerCanvas: Job Finder Chatbot,Calories Burned Prediction Model</t>
         </is>
       </c>
       <c r="P6" s="4" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Azure Fundamental (AZ-900), Microsoft Certified: Azure AI Fundamental (AI-900), Microsoft Certified: Azure Data Fundamental (DP-900), Microsoft Certified: Security, Compliance and Data Fundamental (SC-900), Microsoft Certified: Azure Administrator (AZ-104)</t>
+          <t>Microsoft Certified: Azure Fundamental (AZ-900),Microsoft Certified: Azure AI Fundamental (AI-900),Microsoft Certified: Azure Data Fundamental (DP-900),Microsoft Certified: Security, Compliance and Data Fundamental (SC-900),Microsoft Certified: Azure Administrator (AZ-104)</t>
         </is>
       </c>
       <c r="Q6" s="4" t="inlineStr">
         <is>
-          <t>Awarded gold medal in Mathematics Olympiad (2019), Awarded gold medal in National Science Olympiad (2018), Got 1st Rank in class continuously from class 5 to 12, AWS AI &amp; ML Scholarship, Toppr Asha Scholarship, Reliance Undergraduate Scholar, Google Kickstart Ranks, HDFC ECSS Scholarship, Solved more than 700+ programming problems on competitive platforms, MI Scholarship for class 11 and 12 students, Selected for Amazon ML Summer School 2024, One of my projects was selected among the top 5 in a quarterly project competition</t>
+          <t>Awarded gold medal in Mathematics Olympiad,Awarded gold medal in National Science Olympiad,Got 1st Rank in class continuously from class 5 to 12,AWS AI &amp; ML Scholarship,Toppr Asha Scholarship,Reliance Undergraduate Scholar,Google Kickstart Ranks: Round H 2022-3280, Farewell Round B 2023 -753, Farewell Round D 2023- 150,HDFC ECSS Scholarship,Solved more than 700+ programming problems on competitive platforms,MI Scholarship for class 11 and 12 students,Selected for Amazon ML Summer School 2024,One of my projects was selected among the top 5 in a quarterly project competition</t>
         </is>
       </c>
       <c r="R6" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="S6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ML Engineer (55.51) 
-Generative AI Developer (50.25) 
-AI Research Scientist (46.28) 
+          <t xml:space="preserve">ML Engineer (56.99) 
+Generative AI Developer (51.51) 
+AI Research Scientist (47.02) 
 </t>
         </is>
       </c>
